--- a/技术图纸/调度平台图纸/其他文件柜/17寸深，17寸宽，26寸高开放移动文件柜/1186171726002 17寸深，17寸宽，26寸高移动文件柜模块，无锁，深灰.xlsx
+++ b/技术图纸/调度平台图纸/其他文件柜/17寸深，17寸宽，26寸高开放移动文件柜/1186171726002 17寸深，17寸宽，26寸高移动文件柜模块，无锁，深灰.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\设备清单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\svn\drawings\技术图纸\调度平台图纸\其他文件柜\17寸深，17寸宽，26寸高开放移动文件柜\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,22 +93,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FPM-2015-UL-DARKGRAY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20寸深，15寸宽移动文件柜，无锁，Dark Gray（深灰）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1186171726002 17寸深，17寸宽，26寸高移动文件柜模块，无锁，Dark Gray（深灰）</t>
+  </si>
+  <si>
+    <t>FPM-171726-NL-DARKGRAY</t>
+  </si>
+  <si>
+    <t>17寸深，17寸宽，26寸高移动文件柜，无锁，Dark Gray（深灰）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -333,7 +331,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +434,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -445,65 +503,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,16 +870,16 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="1.8984375" customWidth="1"/>
     <col min="2" max="2" width="4.69921875" customWidth="1"/>
     <col min="3" max="3" width="6.3984375" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
     <col min="6" max="6" width="4.19921875" customWidth="1"/>
     <col min="7" max="7" width="24.796875" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="7" customWidth="1"/>
@@ -886,21 +887,21 @@
     <col min="10" max="10" width="5.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="10.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -908,19 +909,19 @@
       </c>
       <c r="D3" s="32">
         <f ca="1">TODAY()</f>
-        <v>42229</v>
-      </c>
-      <c r="E3" s="51" t="s">
+        <v>42297</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -928,40 +929,40 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
+      <c r="B5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.95" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="27" t="s">
         <v>5</v>
       </c>
@@ -969,21 +970,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="28">
+      <c r="C8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="57">
         <v>11292015002</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="56"/>
+      <c r="F8" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="53"/>
       <c r="H8" s="29">
         <v>1</v>
       </c>
@@ -991,197 +992,197 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" customHeight="1">
       <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="28">
         <v>11990033</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="31">
         <v>2</v>
       </c>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="33">
         <v>3</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="50">
         <v>192</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="28">
         <v>11990001</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="31">
         <v>2</v>
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="33">
         <v>4</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="28">
         <v>11990131</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="31">
         <v>4</v>
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="24"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="13"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="24"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="12"/>
       <c r="H13" s="17"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="24"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="12"/>
       <c r="H14" s="17"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="12"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="13"/>
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="12"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="13"/>
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="22"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="12"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="13"/>
       <c r="F17" s="19"/>
       <c r="G17" s="14"/>
       <c r="H17" s="18"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="12"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="13"/>
       <c r="F18" s="19"/>
       <c r="G18" s="14"/>
       <c r="H18" s="18"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+    <row r="19" spans="2:9">
+      <c r="B19" s="56"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="13"/>
       <c r="F19" s="19"/>
       <c r="G19" s="14"/>
       <c r="H19" s="18"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="56"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+    <row r="21" spans="2:9">
+      <c r="B21" s="56"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+    <row r="22" spans="2:9">
+      <c r="B22" s="56"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="13"/>
       <c r="F22" s="19"/>
       <c r="G22" s="14"/>
       <c r="H22" s="18"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+    <row r="23" spans="2:9">
+      <c r="B23" s="56"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="12"/>
       <c r="H23" s="17"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+    <row r="24" spans="2:9">
+      <c r="B24" s="56"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
       <c r="H24" s="17"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1191,7 +1192,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1201,7 +1202,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1211,7 +1212,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1221,7 +1222,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1231,7 +1232,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1241,7 +1242,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1251,7 +1252,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1261,7 +1262,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1271,7 +1272,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1281,7 +1282,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1291,7 +1292,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1301,7 +1302,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1311,7 +1312,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1321,7 +1322,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1331,7 +1332,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1341,7 +1342,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1351,7 +1352,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1361,7 +1362,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1371,7 +1372,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1381,7 +1382,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1391,7 +1392,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1401,7 +1402,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1411,7 +1412,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1423,6 +1424,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C2:I2"/>
@@ -1439,19 +1453,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1495,7 +1496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1509,7 +1510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
